--- a/data/trans_dic/P44-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_dic/P44-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,25%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,48; 10,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>7,77; 12,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>31,63; 39,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,13; 8,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>6,21; 10,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>24,7; 29,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,58; 8,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,22; 10,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>28,03; 32,39</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,16%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>8,47; 15,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>9,57; 14,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>32,74; 49,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>5,39; 11,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>4,08; 7,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>16,81; 31,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>7,58; 12,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,28; 10,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>26,96; 37,83</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,09%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>7,82; 23,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>12,12; 25,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>39,15; 50,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>10,84; 33,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>7,67; 21,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>33,36; 43,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>10,86; 23,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>11,49; 21,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>38,4; 45,56</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,05%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,66; 11,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>10,05; 13,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>35,38; 45,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,05; 8,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,13; 9,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,95; 30,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>7,22; 9,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>8,38; 10,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>29,9; 36,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P44-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44-Estudios-trans_dic.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>30,01%</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,63; 39,55</t>
+          <t>31,52; 39,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,7; 29,76</t>
+          <t>24,28; 29,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,03; 32,39</t>
+          <t>27,8; 32,12</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>37,41%</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,74; 49,99</t>
+          <t>33,23; 75,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 31,06</t>
+          <t>11,62; 30,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,96; 37,83</t>
+          <t>26,29; 58,82</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>42,01%</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,15; 50,37</t>
+          <t>38,09; 50,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,36; 43,26</t>
+          <t>33,48; 43,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,4; 45,56</t>
+          <t>38,06; 45,6</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>35,86%</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,38; 45,46</t>
+          <t>35,63; 66,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,95; 30,68</t>
+          <t>18,04; 30,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,9; 36,19</t>
+          <t>29,37; 49,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P44-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,16</t>
+          <t>5,5; 9,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 12,81</t>
+          <t>7,72; 12,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,52; 39,38</t>
+          <t>31,28; 39,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,35</t>
+          <t>5,04; 8,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,17</t>
+          <t>6,16; 10,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,28; 29,12</t>
+          <t>24,08; 29,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,21</t>
+          <t>5,62; 8,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,48</t>
+          <t>7,36; 10,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,8; 32,12</t>
+          <t>27,59; 32,24</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 15,0</t>
+          <t>8,25; 14,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 14,47</t>
+          <t>9,28; 14,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,23; 75,01</t>
+          <t>33,41; 76,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,49</t>
+          <t>5,18; 11,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,89</t>
+          <t>4,0; 7,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 30,94</t>
+          <t>12,96; 31,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,58; 12,02</t>
+          <t>7,5; 12,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 10,39</t>
+          <t>7,32; 10,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,29; 58,82</t>
+          <t>25,38; 59,46</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 23,71</t>
+          <t>8,21; 24,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 25,06</t>
+          <t>12,31; 25,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,09; 50,28</t>
+          <t>38,89; 51,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 33,13</t>
+          <t>10,43; 31,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 21,91</t>
+          <t>7,94; 22,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,48; 43,29</t>
+          <t>34,1; 43,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 23,49</t>
+          <t>11,07; 23,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,49; 21,14</t>
+          <t>11,56; 20,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,06; 45,6</t>
+          <t>37,7; 46,07</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 11,5</t>
+          <t>7,8; 11,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 13,81</t>
+          <t>10,15; 13,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,63; 66,31</t>
+          <t>35,89; 66,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 8,86</t>
+          <t>6,04; 9,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,02</t>
+          <t>6,17; 8,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 30,43</t>
+          <t>18,0; 30,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 9,47</t>
+          <t>7,29; 9,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 10,65</t>
+          <t>8,36; 10,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,37; 49,72</t>
+          <t>29,31; 49,53</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>48424</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55291</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>142282</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>66021</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64267</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>170682</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>114446</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>119558</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>312964</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35779; 64250</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42432; 68451</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>126013; 158738</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>51003; 83092</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50018; 83122</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>154090; 186636</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>93432; 137207</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>100172; 142838</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>287718; 336191</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49747</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79688</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>512398</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30442</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37463</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>223015</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>80188</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>117151</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>735413</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36013; 65349</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>63310; 98864</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>342689; 789756</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20162; 44785</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26328; 51135</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121810; 292207</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61940; 100330</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>98114; 139668</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>498957; 1168903</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15586</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28943</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>123905</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12489</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16143</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>85727</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28075</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45087</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>209632</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8614; 25290</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19996; 41071</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>107994; 142239</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6570; 20057</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9665; 27053</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>75463; 96112</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18591; 39744</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32853; 58574</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>188094; 229858</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>113756</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>163922</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>778586</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>108953</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>117874</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>479423</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>222709</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>281796</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1258010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>92904; 136614</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>141606; 189442</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>612371; 1133268</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88445; 131781</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>98246; 141118</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>324322; 551922</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>193727; 253523</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>249669; 315051</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1028084; 1737384</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
